--- a/biology/Zoologie/Coris_julis/Coris_julis.xlsx
+++ b/biology/Zoologie/Coris_julis/Coris_julis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La girelle (Coris julis), appelée aussi girelle royale (pour les mâles) ou girelle commune (pour les femelles), est une espèce de poissons de la famille des Labridae.
 Il ne faut confondre cette espèce ni avec celle également appelée « girelle » à Maurice, Halichoeres hortulanus, ni avec le genre latin Girella de la famille des Kyphosidae.
@@ -512,7 +524,9 @@
           <t>Description de coris julis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La girelle royale est un poisson hermaphrodite protérogyne, qui passe de femelle à mâle à un stade particulier de sa vie, et le demeure jusqu'à la fin. Sa reproduction est donc sexuée, et les femelles sont plus nombreuses que les mâles. Elle vit sur les côtes méditerranéennes, où elle est très commune, à l'est de l'Atlantique (déjà vue en Bretagne), du Gabon au nord de l'Écosse, ainsi que sur les côtes des îles du Cap-Vert, des îles Canaries et des Açores.
 Le nom de girelle royale s'applique aux individus mâles (reconnaissables à leurs couleurs vives), et le nom de girelle commune aux femelles (couleurs moins marquées). Lors de la transformation d'une femelle en mâle, la girelle finira par adopter les couleurs vives définitives.
@@ -544,7 +558,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La girelle est macrophage et carnivore, elle se nourrit de petits crustacés, mollusques, oursins, vers, isopodes et amphipodes, qu'elle capture grâce à ses dents proéminentes.
 Les individus juvéniles affectionnent les herbiers de posidonies (Posidonia oceanica) et la proximité des parois rocheuses. Les individus adultes vivent légèrement plus profond, notamment sur les fonds rocheux couverts d'algues.
